--- a/outputs/raw/Sales_List.xlsx
+++ b/outputs/raw/Sales_List.xlsx
@@ -448,84 +448,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>David Tarver</t>
+          <t>Heath Mellen</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>HM</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alfred Ludwig</t>
+          <t>James Aaron</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>JA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>James Aaron</t>
+          <t>Laura Jackson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JA</t>
+          <t>LJ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Heath Mellen</t>
+          <t>Alfred Ludwig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HM</t>
+          <t>AL</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Robyn George</t>
+          <t>David Tarver</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RG</t>
+          <t>DT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Randy Byerly</t>
+          <t>Robyn George</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>RG</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Laura Jackson</t>
+          <t>Randy Byerly</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LJ</t>
+          <t>RB</t>
         </is>
       </c>
     </row>
